--- a/片仮名.xlsx
+++ b/片仮名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="2585">
   <si>
     <t>紐約</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10992,10 +10992,6 @@
   </si>
   <si>
     <t>RNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vaccin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -12901,6 +12897,46 @@
   </si>
   <si>
     <t>/ˈmænɪkjʊə(r)/</t>
+  </si>
+  <si>
+    <t> /ˈresəpi/ </t>
+  </si>
+  <si>
+    <t>意大利麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヴェルサイユ　きゅうでん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Versailles宮殿　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[vεə'sai]  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键盘输入：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>verusaiyu)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13468,8 +13504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D838"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C561" sqref="C561"/>
+    <sheetView tabSelected="1" topLeftCell="B808" workbookViewId="0">
+      <selection activeCell="D813" sqref="D813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25"/>
@@ -14435,7 +14471,7 @@
         <v>1917</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>254</v>
@@ -16002,7 +16038,7 @@
         <v>673</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -18566,7 +18602,7 @@
         <v>1165</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1321</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -19135,7 +19171,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:4">
       <c r="A529" s="9" t="s" ph="1">
         <v>1424</v>
       </c>
@@ -19146,7 +19182,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:4">
       <c r="A530" s="9" t="s" ph="1">
         <v>1414</v>
       </c>
@@ -19157,7 +19193,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:4">
       <c r="A531" s="9" t="s" ph="1">
         <v>1416</v>
       </c>
@@ -19165,12 +19201,12 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:4">
       <c r="A532" s="8" t="s" ph="1">
         <v>1546</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:4">
       <c r="A533" s="9" t="s" ph="1">
         <v>1984</v>
       </c>
@@ -19181,7 +19217,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:4">
       <c r="A534" s="9" t="s" ph="1">
         <v>1985</v>
       </c>
@@ -19192,7 +19228,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:4">
       <c r="A535" s="9" t="s" ph="1">
         <v>1986</v>
       </c>
@@ -19203,7 +19239,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:4">
       <c r="A536" s="9" t="s" ph="1">
         <v>1987</v>
       </c>
@@ -19214,7 +19250,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:4">
       <c r="A537" s="9" t="s" ph="1">
         <v>1918</v>
       </c>
@@ -19222,7 +19258,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:4">
       <c r="A538" s="9" t="s" ph="1">
         <v>1919</v>
       </c>
@@ -19233,7 +19269,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:4">
       <c r="A539" s="9" t="s" ph="1">
         <v>1988</v>
       </c>
@@ -19244,7 +19280,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:4">
       <c r="A540" s="9" t="s" ph="1">
         <v>1989</v>
       </c>
@@ -19255,7 +19291,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:4">
       <c r="A541" s="9" t="s" ph="1">
         <v>1990</v>
       </c>
@@ -19266,7 +19302,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:4">
       <c r="A542" s="9" t="s" ph="1">
         <v>1991</v>
       </c>
@@ -19277,7 +19313,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:4">
       <c r="A543" s="9" t="s" ph="1">
         <v>1992</v>
       </c>
@@ -19287,8 +19323,11 @@
       <c r="C543" s="1" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="544" spans="1:3">
+      <c r="D543" s="17" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" s="9" t="s" ph="1">
         <v>1993</v>
       </c>
@@ -19383,7 +19422,7 @@
         <v>1577</v>
       </c>
       <c r="D553" s="17" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -19397,7 +19436,7 @@
         <v>1578</v>
       </c>
       <c r="D554" s="17" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -21309,7 +21348,7 @@
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="9" t="s" ph="1">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2139</v>
@@ -21320,7 +21359,7 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="9" t="s" ph="1">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2140</v>
@@ -21331,7 +21370,7 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="9" t="s" ph="1">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>2141</v>
@@ -21342,7 +21381,7 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="9" t="s" ph="1">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>2142</v>
@@ -21353,7 +21392,7 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="9" t="s" ph="1">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>2143</v>
@@ -21364,7 +21403,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="9" t="s" ph="1">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>2159</v>
@@ -21372,7 +21411,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="9" t="s" ph="1">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>2144</v>
@@ -21383,7 +21422,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="9" t="s" ph="1">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>2145</v>
@@ -21394,7 +21433,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="9" t="s" ph="1">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>2146</v>
@@ -21405,7 +21444,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="9" t="s" ph="1">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>2147</v>
@@ -21416,7 +21455,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="9" t="s" ph="1">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>2148</v>
@@ -21427,7 +21466,7 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="9" t="s" ph="1">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>2149</v>
@@ -21438,7 +21477,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="9" t="s" ph="1">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2150</v>
@@ -21449,7 +21488,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="9" t="s" ph="1">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>2151</v>
@@ -21460,7 +21499,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="9" t="s" ph="1">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>2168</v>
@@ -21468,7 +21507,7 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="9" t="s" ph="1">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>2152</v>
@@ -21479,7 +21518,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="9" t="s" ph="1">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>2153</v>
@@ -21490,7 +21529,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="9" t="s" ph="1">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>2205</v>
@@ -21501,7 +21540,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="9" t="s" ph="1">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>2206</v>
@@ -21512,7 +21551,7 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="9" t="s" ph="1">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2207</v>
@@ -21523,7 +21562,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="9" t="s" ph="1">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>2208</v>
@@ -21534,7 +21573,7 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="9" t="s" ph="1">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>2209</v>
@@ -21545,10 +21584,10 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="9" t="s" ph="1">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2176</v>
@@ -21556,7 +21595,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="9" t="s" ph="1">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>2210</v>
@@ -21567,7 +21606,7 @@
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="9" t="s" ph="1">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>2211</v>
@@ -21578,7 +21617,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="9" t="s" ph="1">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>2212</v>
@@ -21589,7 +21628,7 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" s="9" t="s" ph="1">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>2213</v>
@@ -21600,7 +21639,7 @@
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="9" t="s" ph="1">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>2214</v>
@@ -21611,7 +21650,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="9" t="s" ph="1">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>2215</v>
@@ -21622,7 +21661,7 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="9" t="s" ph="1">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>2216</v>
@@ -21633,7 +21672,7 @@
     </row>
     <row r="762" spans="1:3">
       <c r="A762" s="9" t="s" ph="1">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>2217</v>
@@ -21644,7 +21683,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="9" t="s" ph="1">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>2218</v>
@@ -21655,7 +21694,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="9" t="s" ph="1">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2219</v>
@@ -21666,7 +21705,7 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="9" t="s" ph="1">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>2220</v>
@@ -21677,7 +21716,7 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="9" t="s" ph="1">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>2221</v>
@@ -21688,10 +21727,10 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="9" t="s" ph="1">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2189</v>
@@ -21699,7 +21738,7 @@
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="9" t="s" ph="1">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>2222</v>
@@ -21710,7 +21749,7 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="9" t="s" ph="1">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>2223</v>
@@ -21721,18 +21760,18 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="9" t="s" ph="1">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B770" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C770" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="C770" s="1" t="s">
-        <v>2225</v>
       </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="9" t="s" ph="1">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2192</v>
@@ -21740,7 +21779,7 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="9" t="s" ph="1">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>2193</v>
@@ -21754,7 +21793,7 @@
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="9" t="s" ph="1">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2196</v>
@@ -21762,10 +21801,10 @@
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="9" t="s" ph="1">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2197</v>
@@ -21773,10 +21812,10 @@
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="9" t="s" ph="1">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2198</v>
@@ -21784,10 +21823,10 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="9" t="s" ph="1">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2198</v>
@@ -21795,32 +21834,32 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="9" t="s" ph="1">
+        <v>2407</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C777" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C777" s="1" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="9" t="s" ph="1">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="9" t="s" ph="1">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2199</v>
@@ -21828,10 +21867,10 @@
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="9" t="s" ph="1">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2200</v>
@@ -21839,10 +21878,10 @@
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="9" t="s" ph="1">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2201</v>
@@ -21850,10 +21889,10 @@
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="9" t="s" ph="1">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2202</v>
@@ -21861,10 +21900,10 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="9" t="s" ph="1">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2203</v>
@@ -21872,10 +21911,10 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="9" t="s" ph="1">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2204</v>
@@ -21883,602 +21922,602 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="9" t="s" ph="1">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B785" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C785" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="C785" s="1" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="9" t="s" ph="1">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="9" t="s" ph="1">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="9" t="s" ph="1">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="9" t="s" ph="1">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="9" t="s" ph="1">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="9" t="s" ph="1">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="9" t="s" ph="1">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="9" t="s" ph="1">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="9" t="s" ph="1">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D794" s="14" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="9" t="s" ph="1">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="9" t="s" ph="1">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="9" t="s" ph="1">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="9" t="s" ph="1">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="9" t="s" ph="1">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="9" t="s" ph="1">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="9" t="s" ph="1">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="9" t="s" ph="1">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="9" t="s" ph="1">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="9" t="s" ph="1">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="9" t="s" ph="1">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="9" t="s" ph="1">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B806" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C806" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="C806" s="1" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="9" t="s" ph="1">
+        <v>2357</v>
+      </c>
+      <c r="B807" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="B807" s="1" t="s">
-        <v>2359</v>
-      </c>
       <c r="C807" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="9" t="s" ph="1">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B808" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C808" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="C808" s="1" t="s">
-        <v>2258</v>
-      </c>
       <c r="D808" s="6" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="9" t="s" ph="1">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B809" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C809" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="C809" s="1" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="9" t="s" ph="1">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="9" t="s" ph="1">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="9" t="s" ph="1">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="9" t="s" ph="1">
-        <v>2363</v>
+        <v>2582</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>2263</v>
+        <v>2583</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D813" s="6" t="s">
-        <v>2262</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="9" t="s" ph="1">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="9" t="s" ph="1">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B815" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D815" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="C815" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D815" s="1" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="9" t="s" ph="1">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B816" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C816" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="C816" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="9" t="s" ph="1">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="9" t="s" ph="1">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="9" t="s" ph="1">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C819" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D819" s="13" t="s">
         <v>2300</v>
-      </c>
-      <c r="D819" s="13" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="9" t="s" ph="1">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="9" t="s" ph="1">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="9" t="s" ph="1">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="9" t="s" ph="1">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="9" t="s" ph="1">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="9" t="s" ph="1">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="9" t="s" ph="1">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="827" spans="1:4">
       <c r="B827" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C827" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="C827" s="1" t="s">
-        <v>2311</v>
-      </c>
       <c r="D827" s="6" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="9" t="s" ph="1">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="9" t="s" ph="1">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="9" t="s" ph="1">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="9" t="s" ph="1">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="9" t="s" ph="1">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="9" t="s" ph="1">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="9" t="s" ph="1">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="9" t="s" ph="1">
+        <v>2367</v>
+      </c>
+      <c r="B835" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="B835" s="1" t="s">
-        <v>2369</v>
-      </c>
       <c r="C835" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="9" t="s" ph="1">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="9" t="s" ph="1">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="9" t="s" ph="1">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
   </sheetData>
@@ -22519,7 +22558,7 @@
         <v>1598</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -22665,12 +22704,12 @@
         <v>1646</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s" ph="1">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2144</v>
@@ -22679,7 +22718,7 @@
         <v>2160</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -22737,7 +22776,7 @@
         <v>1224</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -22795,7 +22834,7 @@
         <v>1269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -22803,7 +22842,7 @@
         <v>449</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>446</v>
@@ -22842,7 +22881,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -22856,7 +22895,7 @@
         <v>1679</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -22903,7 +22942,7 @@
         <v>1315</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -22919,10 +22958,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s" ph="1">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2201</v>
@@ -22930,13 +22969,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s" ph="1">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -23172,13 +23211,13 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s" ph="1">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -23238,7 +23277,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s" ph="1">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>2221</v>
@@ -23304,7 +23343,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9" t="s" ph="1">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>2216</v>
@@ -23359,7 +23398,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="s" ph="1">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2205</v>
@@ -23381,24 +23420,24 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="s" ph="1">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="s" ph="1">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -23425,7 +23464,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s" ph="1">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2207</v>
@@ -23469,13 +23508,13 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s" ph="1">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -23568,7 +23607,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="9" t="s" ph="1">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>2145</v>
@@ -23615,7 +23654,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>128</v>
@@ -23634,13 +23673,13 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s" ph="1">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -23978,7 +24017,7 @@
         <v>398</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>396</v>
@@ -24019,13 +24058,13 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="9" t="s" ph="1">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -24159,7 +24198,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="9" t="s" ph="1">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>2215</v>
@@ -24511,13 +24550,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="9" t="s" ph="1">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -24566,7 +24605,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="9" t="s" ph="1">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>2151</v>
@@ -24599,16 +24638,16 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="9" t="s" ph="1">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -24701,10 +24740,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="9" t="s" ph="1">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2198</v>
@@ -24778,7 +24817,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="9" t="s" ph="1">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>2143</v>
@@ -24789,10 +24828,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="9" t="s" ph="1">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2176</v>
@@ -24913,7 +24952,7 @@
         <v>433</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>432</v>
@@ -24954,7 +24993,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="9" t="s" ph="1">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>2208</v>
@@ -24965,13 +25004,13 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="9" t="s" ph="1">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -24998,13 +25037,13 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="9" t="s" ph="1">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -25042,13 +25081,13 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="9" t="s" ph="1">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -25119,7 +25158,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="9" t="s" ph="1">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1762</v>
@@ -25229,10 +25268,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="9" t="s" ph="1">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2200</v>
@@ -25240,7 +25279,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="9" t="s" ph="1">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>2148</v>
@@ -25450,13 +25489,13 @@
     <row r="266" spans="1:4">
       <c r="A266" s="9" ph="1"/>
       <c r="B266" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>2311</v>
-      </c>
       <c r="D266" s="6" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -25494,7 +25533,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="9" t="s" ph="1">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>2213</v>
@@ -25596,7 +25635,7 @@
         <v>566</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>565</v>
@@ -25758,7 +25797,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="9" t="s" ph="1">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1778</v>
@@ -25934,24 +25973,24 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="9" t="s" ph="1">
+        <v>2407</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="9" t="s" ph="1">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -25967,7 +26006,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="9" t="s" ph="1">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>2220</v>
@@ -26033,7 +26072,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="9" t="s" ph="1">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>2212</v>
@@ -26066,13 +26105,13 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="9" t="s" ph="1">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -26110,13 +26149,13 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="9" t="s" ph="1">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -26176,13 +26215,13 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="9" t="s" ph="1">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -26256,7 +26295,7 @@
         <v>523</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>517</v>
@@ -26264,13 +26303,13 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="9" t="s" ph="1">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -26286,13 +26325,13 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="9" t="s" ph="1">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -26333,7 +26372,7 @@
         <v>599</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>594</v>
@@ -26407,10 +26446,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="9" t="s" ph="1">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2198</v>
@@ -26484,7 +26523,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="9" t="s" ph="1">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>2149</v>
@@ -26539,7 +26578,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="9" t="s" ph="1">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>2146</v>
@@ -26594,24 +26633,24 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="9" t="s" ph="1">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="9" t="s" ph="1">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -26693,7 +26732,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="9" t="s" ph="1">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>2140</v>
@@ -26704,7 +26743,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="9" t="s" ph="1">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>2152</v>
@@ -26781,16 +26820,16 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="9" t="s" ph="1">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C387" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D387" s="13" t="s">
         <v>2300</v>
-      </c>
-      <c r="D387" s="13" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -26806,7 +26845,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="9" t="s" ph="1">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>2211</v>
@@ -27236,13 +27275,13 @@
         <v>294</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D427" s="16" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -27269,7 +27308,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="9" t="s" ph="1">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>2218</v>
@@ -27349,7 +27388,7 @@
         <v>1423</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1221</v>
@@ -27368,7 +27407,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="9" t="s" ph="1">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>2193</v>
@@ -27426,24 +27465,24 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="9" t="s" ph="1">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="9" t="s" ph="1">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -27492,10 +27531,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="9" t="s" ph="1">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2204</v>
@@ -27514,13 +27553,13 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="9" t="s" ph="1">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -27547,13 +27586,13 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="9" t="s" ph="1">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -27657,7 +27696,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="9" t="s" ph="1">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>2147</v>
@@ -27723,13 +27762,13 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="9" t="s" ph="1">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -27767,13 +27806,13 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="9" t="s" ph="1">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -27803,7 +27842,7 @@
         <v>1011</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>747</v>
@@ -27811,13 +27850,13 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="9" t="s" ph="1">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -27888,18 +27927,18 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="9" t="s" ph="1">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="9" t="s" ph="1">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>2153</v>
@@ -27976,13 +28015,13 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="9" t="s" ph="1">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -28031,13 +28070,13 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="9" t="s" ph="1">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -28284,7 +28323,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="9" t="s" ph="1">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1764</v>
@@ -28317,7 +28356,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="9" t="s" ph="1">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>2150</v>
@@ -28328,10 +28367,10 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="9" t="s" ph="1">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2203</v>
@@ -28438,18 +28477,18 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="9" t="s" ph="1">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="9" t="s" ph="1">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>2214</v>
@@ -28485,7 +28524,7 @@
         <v>93</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>91</v>
@@ -28515,10 +28554,10 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="9" t="s" ph="1">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2199</v>
@@ -28526,13 +28565,13 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="9" t="s" ph="1">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -28581,10 +28620,10 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="9" t="s" ph="1">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2189</v>
@@ -28592,7 +28631,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="9" t="s" ph="1">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>2142</v>
@@ -28617,7 +28656,7 @@
         <v>134</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>132</v>
@@ -28669,16 +28708,16 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="9" t="s" ph="1">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2191</v>
       </c>
       <c r="D557" s="14" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -28727,13 +28766,13 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="9" t="s" ph="1">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -28826,13 +28865,13 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="9" t="s" ph="1">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -28881,13 +28920,13 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="9" t="s" ph="1">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="33" customHeight="1">
@@ -28936,13 +28975,13 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="9" t="s" ph="1">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -28969,13 +29008,13 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="9" t="s" ph="1">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -29081,18 +29120,18 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="9" t="s" ph="1">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="9" t="s" ph="1">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>2210</v>
@@ -29158,7 +29197,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="9" t="s" ph="1">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>1973</v>
@@ -29169,7 +29208,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="9" t="s" ph="1">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>2209</v>
@@ -29213,21 +29252,21 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="9" t="s" ph="1">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="9" t="s" ph="1">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2202</v>
@@ -29268,13 +29307,13 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="9" t="s" ph="1">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -29422,10 +29461,10 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="9" t="s" ph="1">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2186</v>
@@ -29645,13 +29684,13 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="9" t="s" ph="1">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -29703,7 +29742,7 @@
         <v>1408</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>1347</v>
@@ -29714,7 +29753,7 @@
         <v>588</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>581</v>
@@ -29733,7 +29772,7 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="9" t="s" ph="1">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>2206</v>
@@ -29821,16 +29860,16 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="9" t="s" ph="1">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B661" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C661" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="C661" s="1" t="s">
-        <v>2258</v>
-      </c>
       <c r="D661" s="6" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -29868,13 +29907,13 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="9" t="s" ph="1">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -29901,13 +29940,13 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="9" t="s" ph="1">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -29915,7 +29954,7 @@
         <v>682</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>681</v>
@@ -29948,7 +29987,7 @@
         <v>185</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>162</v>
@@ -29956,10 +29995,10 @@
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="9" t="s" ph="1">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2156</v>
@@ -30077,7 +30116,7 @@
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="9" t="s" ph="1">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>2139</v>
@@ -30146,7 +30185,7 @@
         <v>126</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>123</v>
@@ -30363,13 +30402,13 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="9" t="s" ph="1">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -30418,13 +30457,13 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="9" t="s" ph="1">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B715" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C715" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="C715" s="1" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -30561,13 +30600,13 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="9" t="s" ph="1">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -30583,7 +30622,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="9" t="s" ph="1">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>1833</v>
@@ -30594,7 +30633,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="9" t="s" ph="1">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2217</v>
@@ -30605,13 +30644,13 @@
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="9" t="s" ph="1">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -30627,13 +30666,13 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="9" t="s" ph="1">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -30660,16 +30699,16 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="9" t="s" ph="1">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D737" s="6" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -30729,10 +30768,10 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="9" t="s" ph="1">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>2197</v>
@@ -30762,7 +30801,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="9" t="s" ph="1">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>2222</v>
@@ -30949,16 +30988,16 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="9" t="s" ph="1">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B763" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D763" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="C763" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D763" s="1" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -31018,7 +31057,7 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="15" t="s" ph="1">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>249</v>
@@ -31026,7 +31065,7 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="15" t="s" ph="1">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>387</v>
@@ -31475,7 +31514,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" s="9" t="s" ph="1">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2159</v>
@@ -31483,7 +31522,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="9" t="s" ph="1">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2168</v>
@@ -31491,7 +31530,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="9" t="s" ph="1">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>2192</v>
@@ -31499,7 +31538,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="9" t="s" ph="1">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2196</v>
@@ -31507,26 +31546,26 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="9" t="s" ph="1">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="9" t="s" ph="1">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="9" t="s" ph="1">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="834" spans="1:1" ht="22.5">
@@ -32061,13 +32100,13 @@
         <v>2019</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25">
@@ -32081,7 +32120,7 @@
         <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25">
@@ -32095,21 +32134,21 @@
         <v>661</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.25">
       <c r="A4" s="9" t="s" ph="1">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1875</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25">
@@ -32123,7 +32162,7 @@
         <v>319</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.25">
@@ -32137,7 +32176,7 @@
         <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.25">
@@ -32151,7 +32190,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.25">
@@ -32165,7 +32204,7 @@
         <v>788</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.25">
@@ -32179,7 +32218,7 @@
         <v>643</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.25">
@@ -32193,21 +32232,21 @@
         <v>779</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.25">
       <c r="A11" s="15" t="s" ph="1">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.25">
@@ -32221,7 +32260,7 @@
         <v>1715</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32.25">
@@ -32235,7 +32274,7 @@
         <v>1282</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32.25">
@@ -32249,21 +32288,21 @@
         <v>1646</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="32.25">
       <c r="A15" s="9" t="s" ph="1">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32.25">
@@ -32277,7 +32316,7 @@
         <v>697</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32.25">
@@ -32291,7 +32330,7 @@
         <v>653</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.25">
@@ -32305,7 +32344,7 @@
         <v>270</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="32.25">
@@ -32319,7 +32358,7 @@
         <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.25">
@@ -32333,7 +32372,7 @@
         <v>1224</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32.25">
@@ -32347,7 +32386,7 @@
         <v>734</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32.25">
@@ -32361,7 +32400,7 @@
         <v>1867</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32.25">
@@ -32375,7 +32414,7 @@
         <v>1597</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="32.25">
@@ -32389,7 +32428,7 @@
         <v>304</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32.25">
@@ -32403,7 +32442,7 @@
         <v>1269</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="32.25">
@@ -32411,13 +32450,13 @@
         <v>449</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32.25">
@@ -32431,7 +32470,7 @@
         <v>1562</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32.25">
@@ -32445,7 +32484,7 @@
         <v>1632</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32.25">
@@ -32459,7 +32498,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32.25">
@@ -32473,7 +32512,7 @@
         <v>1679</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="32.25">
@@ -32487,7 +32526,7 @@
         <v>794</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="32.25">
@@ -32501,7 +32540,7 @@
         <v>667</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32.25">
@@ -32512,10 +32551,10 @@
         <v>1161</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -32524,16 +32563,16 @@
     </row>
     <row r="41" spans="1:5" ht="32.25">
       <c r="A41" s="9" t="s" ph="1">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>2556</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="32.25">
@@ -32544,7 +32583,7 @@
         <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>167</v>
@@ -32552,16 +32591,16 @@
     </row>
     <row r="43" spans="1:5" ht="32.25">
       <c r="A43" s="9" t="s" ph="1">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="32.25">
@@ -32572,7 +32611,7 @@
         <v>1755</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1866</v>
@@ -32586,7 +32625,7 @@
         <v>1088</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1228</v>
@@ -32594,19 +32633,19 @@
     </row>
     <row r="46" spans="1:5" ht="32.25">
       <c r="A46" s="9" t="s" ph="1">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="32.25">
@@ -32617,7 +32656,7 @@
         <v>196</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>201</v>
@@ -32631,7 +32670,7 @@
         <v>1146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1300</v>
@@ -32645,7 +32684,7 @@
         <v>836</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>720</v>
@@ -32659,7 +32698,7 @@
         <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>146</v>
@@ -32673,7 +32712,7 @@
         <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>163</v>
@@ -32681,13 +32720,13 @@
     </row>
     <row r="52" spans="1:4" ht="32.25">
       <c r="A52" s="9" t="s" ph="1">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>2197</v>
@@ -32701,7 +32740,7 @@
         <v>1928</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1584</v>
@@ -32715,7 +32754,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>121</v>
@@ -32723,13 +32762,13 @@
     </row>
     <row r="55" spans="1:4" ht="32.25">
       <c r="A55" s="9" t="s" ph="1">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2222</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2190</v>
@@ -32743,7 +32782,7 @@
         <v>1151</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1305</v>
@@ -32757,7 +32796,7 @@
         <v>1799</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1647</v>
@@ -32771,7 +32810,7 @@
         <v>556</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>555</v>
@@ -32785,7 +32824,7 @@
         <v>1785</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1877</v>
@@ -32799,7 +32838,7 @@
         <v>1747</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1601</v>
@@ -32813,7 +32852,7 @@
         <v>580</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>584</v>
@@ -32827,7 +32866,7 @@
         <v>1108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1253</v>
@@ -32996,7 +33035,7 @@
     </row>
     <row r="91" spans="1:3" ht="20.25">
       <c r="A91" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="92" spans="1:3">
